--- a/material/checklist.xlsx
+++ b/material/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atsukotominaga/Google Drive/Project/adaptation-v1.0/material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5E8CA3-85CC-7544-BBFB-4813C4D81F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594B8D55-B601-F049-ACB1-4CF0EEE776C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2440" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,12 +42,6 @@
     <t>Consent Form</t>
   </si>
   <si>
-    <t>Receipt</t>
-  </si>
-  <si>
-    <t>Checklist - 24/09/2021</t>
-  </si>
-  <si>
     <t>Pre check</t>
   </si>
   <si>
@@ -55,6 +49,12 @@
   </si>
   <si>
     <t>Post check</t>
+  </si>
+  <si>
+    <t>Checklist - 26/09/2021</t>
+  </si>
+  <si>
+    <t>Memo</t>
   </si>
 </sst>
 </file>
@@ -502,19 +502,20 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.33203125" style="1" customWidth="1"/>
-    <col min="2" max="7" width="15.6640625" style="1" customWidth="1"/>
+    <col min="2" max="6" width="15.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="77.83203125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -526,19 +527,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
